--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -549,10 +549,10 @@
         <v>1.10645</v>
       </c>
       <c r="I2">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J2">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>3.938770030924999</v>
+        <v>5.465011402316666</v>
       </c>
       <c r="R2">
-        <v>23.63262018555</v>
+        <v>32.79006841389999</v>
       </c>
       <c r="S2">
-        <v>0.06664694167348263</v>
+        <v>0.1392438226618084</v>
       </c>
       <c r="T2">
-        <v>0.06118388545383266</v>
+        <v>0.1204264198579482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>1.10645</v>
       </c>
       <c r="I3">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J3">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
         <v>9.707510502494443</v>
@@ -641,10 +641,10 @@
         <v>87.36759452244999</v>
       </c>
       <c r="S3">
-        <v>0.1642583550638341</v>
+        <v>0.2473390760582818</v>
       </c>
       <c r="T3">
-        <v>0.2261911228492108</v>
+        <v>0.320870529671705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>1.10645</v>
       </c>
       <c r="I4">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J4">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>2.186227178666666</v>
+        <v>3.117672563883332</v>
       </c>
       <c r="R4">
-        <v>19.676044608</v>
+        <v>28.05905307494999</v>
       </c>
       <c r="S4">
-        <v>0.03699260279670648</v>
+        <v>0.07943563400781387</v>
       </c>
       <c r="T4">
-        <v>0.05094047338079185</v>
+        <v>0.103051059966315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.10645</v>
       </c>
       <c r="I5">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J5">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>6.434414292416665</v>
+        <v>3.270382026758333</v>
       </c>
       <c r="R5">
-        <v>38.6064857545</v>
+        <v>19.62229216055</v>
       </c>
       <c r="S5">
-        <v>0.1088751134701325</v>
+        <v>0.0833265406870447</v>
       </c>
       <c r="T5">
-        <v>0.09995060994644329</v>
+        <v>0.07206579640132757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1.10645</v>
       </c>
       <c r="I6">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J6">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>3.895333815927777</v>
+        <v>1.392494002738889</v>
       </c>
       <c r="R6">
-        <v>35.05800434334999</v>
+        <v>12.53244602465</v>
       </c>
       <c r="S6">
-        <v>0.06591196835320558</v>
+        <v>0.03547955780893912</v>
       </c>
       <c r="T6">
-        <v>0.09076373695097212</v>
+        <v>0.04602727837468601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1.10645</v>
       </c>
       <c r="I7">
-        <v>0.4805747177608939</v>
+        <v>0.6243561829432177</v>
       </c>
       <c r="J7">
-        <v>0.5812056951802134</v>
+        <v>0.7137249741492807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>2.239246910338889</v>
+        <v>1.551525782383333</v>
       </c>
       <c r="R7">
-        <v>20.15322219305</v>
+        <v>13.96373204145</v>
       </c>
       <c r="S7">
-        <v>0.03788973640353259</v>
+        <v>0.03953155171932982</v>
       </c>
       <c r="T7">
-        <v>0.05217586659896268</v>
+        <v>0.0512838898772988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H8">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I8">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J8">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>4.25718761178375</v>
+        <v>3.2880234063635</v>
       </c>
       <c r="R8">
-        <v>17.028750447135</v>
+        <v>13.152093625454</v>
       </c>
       <c r="S8">
-        <v>0.07203480584749761</v>
+        <v>0.0837760279712268</v>
       </c>
       <c r="T8">
-        <v>0.04408673725550175</v>
+        <v>0.04830302666518851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H9">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I9">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J9">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
-        <v>10.4922839180775</v>
+        <v>5.840522443592834</v>
       </c>
       <c r="R9">
-        <v>62.953703508465</v>
+        <v>35.043134661557</v>
       </c>
       <c r="S9">
-        <v>0.1775373095711072</v>
+        <v>0.1488115232555976</v>
       </c>
       <c r="T9">
-        <v>0.1629845592285021</v>
+        <v>0.1287011419013183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H10">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I10">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J10">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>2.3629658976</v>
+        <v>1.8757472965345</v>
       </c>
       <c r="R10">
-        <v>14.1777953856</v>
+        <v>11.254483779207</v>
       </c>
       <c r="S10">
-        <v>0.03998315441554007</v>
+        <v>0.04779243897026406</v>
       </c>
       <c r="T10">
-        <v>0.03670573140217544</v>
+        <v>0.04133377130450603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H11">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I11">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J11">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>6.954584451412501</v>
+        <v>1.96762492520575</v>
       </c>
       <c r="R11">
-        <v>27.81833780565</v>
+        <v>7.870499700823</v>
       </c>
       <c r="S11">
-        <v>0.1176767825126737</v>
+        <v>0.05013340247271234</v>
       </c>
       <c r="T11">
-        <v>0.07202053688729824</v>
+        <v>0.02890558474898999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H12">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I12">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J12">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>4.2102399314325</v>
+        <v>0.8377938374081666</v>
       </c>
       <c r="R12">
-        <v>25.261439588595</v>
+        <v>5.026763024448999</v>
       </c>
       <c r="S12">
-        <v>0.07124041590101468</v>
+        <v>0.02134627138632621</v>
       </c>
       <c r="T12">
-        <v>0.06540083215709414</v>
+        <v>0.01846153740417599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.3986325000000001</v>
+        <v>0.2218985</v>
       </c>
       <c r="H13">
-        <v>0.7972650000000001</v>
+        <v>0.443797</v>
       </c>
       <c r="I13">
-        <v>0.519425282239106</v>
+        <v>0.3756438170567823</v>
       </c>
       <c r="J13">
-        <v>0.4187943048197866</v>
+        <v>0.2862750258507193</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>2.4202718441475</v>
+        <v>0.9334752871495</v>
       </c>
       <c r="R13">
-        <v>14.521631064885</v>
+        <v>5.600851722897001</v>
       </c>
       <c r="S13">
-        <v>0.04095281399127266</v>
+        <v>0.02378415300065536</v>
       </c>
       <c r="T13">
-        <v>0.03759590788921505</v>
+        <v>0.02056996382654036</v>
       </c>
     </row>
   </sheetData>
